--- a/PowerBudget.xlsx
+++ b/PowerBudget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90e43311d231e8ce/Documents/School/Github_repos/Windy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{E6636917-4C1F-447F-B7D2-9F108C226794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E468431-0606-4E0C-A173-59E0D0DAC170}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{E6636917-4C1F-447F-B7D2-9F108C226794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91F8F555-898E-4A9D-893B-2AAD4356723D}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3735" windowWidth="12810" windowHeight="11385" xr2:uid="{01BB44B4-2FC8-4381-A255-2EFBE80A0FF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{01BB44B4-2FC8-4381-A255-2EFBE80A0FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Part</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Pretty low!</t>
+  </si>
+  <si>
+    <t>Rami lameche</t>
+  </si>
+  <si>
+    <t>By:</t>
   </si>
 </sst>
 </file>
@@ -82,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -142,10 +148,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,6 +167,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E63896-F68D-4CF3-910A-D2F4BFC81E5B}">
-  <dimension ref="D1:I12"/>
+  <dimension ref="D1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +666,7 @@
         <v>545.44000000000005</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="G11:I11" si="2" xml:space="preserve"> SUM(H2:H6)</f>
+        <f t="shared" ref="H11" si="2" xml:space="preserve"> SUM(H2:H6)</f>
         <v>1090.8800000000001</v>
       </c>
       <c r="I11">
@@ -667,6 +677,16 @@
     <row r="12" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
